--- a/excelresult/carinfo.xlsx
+++ b/excelresult/carinfo.xlsx
@@ -23,7 +23,7 @@
     <t>Xylo, Ertiga</t>
   </si>
   <si>
-    <t>₹ 8,606</t>
+    <t>₹ 9,720</t>
   </si>
 </sst>
 </file>
